--- a/Khoá luận.xlsx
+++ b/Khoá luận.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baobao/Desktop/RealTime-Sign-Traffic/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A969E1EA-4C58-4143-BCD1-459F4EDA137B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Giai đoạn 1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Label" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Phân công &amp; Tài khoản" sheetId="3" r:id="rId6"/>
+    <sheet name="Giai đoạn 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Label" sheetId="2" r:id="rId2"/>
+    <sheet name="Phân công &amp; Tài khoản" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
   <si>
     <t xml:space="preserve">Tool sử dụng </t>
   </si>
@@ -79,9 +88,6 @@
   </si>
   <si>
     <t>Train Biển Báo cấm</t>
-  </si>
-  <si>
-    <t>26/02/2024</t>
   </si>
   <si>
     <t xml:space="preserve">Dán label và xuất sang file txt </t>
@@ -239,16 +245,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
       </rPr>
       <t>Tài khoản:</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
-        <color rgb="FFFFFFFF"/>
       </rPr>
       <t xml:space="preserve"> khoaluansigntraffic@gmail.com</t>
     </r>
@@ -262,23 +270,26 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
       </rPr>
       <t>Pass:</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
-        <color rgb="FFFFFFFF"/>
       </rPr>
       <t>BaoBao2002@</t>
     </r>
@@ -305,98 +316,122 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="16">
-    <font>
-      <sz val="10.0"/>
+  <fonts count="18" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFEFEFEF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFF3F3F3"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -404,7 +439,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -468,153 +503,149 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="46">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -804,31 +835,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.5"/>
-    <col customWidth="1" min="2" max="2" width="25.75"/>
-    <col customWidth="1" min="3" max="3" width="23.75"/>
-    <col customWidth="1" min="4" max="4" width="21.25"/>
-    <col customWidth="1" min="5" max="5" width="24.75"/>
-    <col customWidth="1" min="6" max="6" width="16.25"/>
-    <col customWidth="1" min="7" max="7" width="14.0"/>
-    <col customWidth="1" min="8" max="8" width="18.5"/>
-    <col customWidth="1" min="9" max="9" width="20.5"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,749 +874,765 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="F1" s="39"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="10">
-        <v>45567.0</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="9">
+        <v>45567</v>
+      </c>
+      <c r="D7" s="43">
+        <v>45371</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="12">
+        <v>2</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="C9" s="14">
+        <v>45567</v>
+      </c>
+      <c r="D9" s="44">
+        <v>45371</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="16">
-        <v>45567.0</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="20"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" ref="F3"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.88"/>
-    <col customWidth="1" min="2" max="2" width="25.75"/>
-    <col customWidth="1" min="3" max="3" width="25.0"/>
-    <col customWidth="1" min="4" max="4" width="21.5"/>
-    <col customWidth="1" min="6" max="6" width="14.13"/>
-    <col customWidth="1" min="7" max="7" width="30.0"/>
-    <col customWidth="1" min="8" max="8" width="17.25"/>
-    <col customWidth="1" min="9" max="9" width="21.75"/>
-    <col customWidth="1" min="10" max="10" width="25.88"/>
-    <col customWidth="1" min="11" max="11" width="15.0"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="25.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
+      <c r="B2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="23" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="45" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="D3" s="2"/>
+      <c r="G3" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="G3" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26" t="s">
+      <c r="D4" s="2"/>
+      <c r="G4" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="G4" s="28">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26" t="s">
+      <c r="D5" s="2"/>
+      <c r="G5" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="G5" s="28">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26" t="s">
+      <c r="D6" s="2"/>
+      <c r="G6" s="23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="G6" s="28">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26" t="s">
+      <c r="D7" s="2"/>
+      <c r="G7" s="23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="G7" s="28">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26" t="s">
+      <c r="D8" s="2"/>
+      <c r="G8" s="23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="G8" s="28">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26" t="s">
+      <c r="D9" s="2"/>
+      <c r="G9" s="23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="G9" s="28">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26" t="s">
+      <c r="D10" s="2"/>
+      <c r="G10" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="G10" s="28">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26" t="s">
+      <c r="D11" s="2"/>
+      <c r="G11" s="23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="G11" s="28">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26" t="s">
+      <c r="D12" s="2"/>
+      <c r="G12" s="23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="G12" s="28">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26" t="s">
+      <c r="D13" s="2"/>
+      <c r="G13" s="23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="G13" s="28">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26" t="s">
+      <c r="D14" s="2"/>
+      <c r="G14" s="23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="G14" s="28">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26" t="s">
+      <c r="D15" s="2"/>
+      <c r="G15" s="23">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="G15" s="28">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26" t="s">
+      <c r="D16" s="2"/>
+      <c r="G16" s="23">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="G16" s="28">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26" t="s">
+      <c r="D17" s="2"/>
+      <c r="G17" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="G17" s="28">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26" t="s">
+      <c r="D18" s="2"/>
+      <c r="G18" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="G18" s="28">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26" t="s">
+      <c r="D19" s="2"/>
+      <c r="G19" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="G19" s="28">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26" t="s">
+      <c r="D20" s="2"/>
+      <c r="G20" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="G20" s="28">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26" t="s">
+      <c r="D21" s="2"/>
+      <c r="G21" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="G21" s="28">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26" t="s">
+      <c r="D22" s="2"/>
+      <c r="G22" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="G22" s="28">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26" t="s">
+      <c r="D23" s="2"/>
+      <c r="G23" s="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="G23" s="28">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26" t="s">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="27"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26" t="s">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="27"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26" t="s">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="27"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26" t="s">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="27"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26" t="s">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="27"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26" t="s">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="27"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26" t="s">
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="27"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26" t="s">
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="20"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="27"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="24"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="26" t="s">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="20"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="27"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="24"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="26" t="s">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="27"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="30" t="s">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="27"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="24"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="30" t="s">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="27"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="24"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="30" t="s">
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="27"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="30" t="s">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="27"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="30" t="s">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="27"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="24"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="30" t="s">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="20"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="27"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="30" t="s">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="20"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="27"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="24"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="27"/>
+      <c r="D41" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.75"/>
-    <col customWidth="1" min="2" max="2" width="31.88"/>
-    <col customWidth="1" min="3" max="3" width="18.88"/>
-    <col customWidth="1" min="4" max="4" width="24.25"/>
-    <col customWidth="1" min="5" max="5" width="32.13"/>
-    <col customWidth="1" min="6" max="6" width="16.5"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="32.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="D2" s="22" t="s">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="D3" s="31" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="33" t="s">
+      <c r="B4" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="D4" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="10">
-        <v>45567.0</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="9">
+        <v>45567</v>
+      </c>
+      <c r="D7" s="43">
+        <v>45371</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="12">
+        <v>2</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="14">
+        <v>45567</v>
+      </c>
+      <c r="D9" s="44">
+        <v>45371</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="29">
+        <v>3</v>
+      </c>
+      <c r="B11" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="16">
-        <v>45567.0</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="20"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="35">
-        <v>3.0</v>
-      </c>
-      <c r="B11" s="36" t="s">
+      <c r="C11" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="D11" s="31">
+        <v>45599</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="37">
-        <v>45599.0</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39" t="s">
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="40"/>
-      <c r="B12" s="41" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="12">
+        <v>4</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1588,8 +1640,8 @@
     <mergeCell ref="D4:F4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B4"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>